--- a/osro_history0612.xlsx
+++ b/osro_history0612.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -354,6 +354,36 @@
   </si>
   <si>
     <t>2025-06-11 20:59:40</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:52</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:53</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:55</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:56</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:58</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:59</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:01</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:02</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:03</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:05</t>
   </si>
 </sst>
 </file>
@@ -10080,6 +10110,926 @@
         <v>15086577</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>113</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410">
+        <v>40</v>
+      </c>
+      <c r="D410">
+        <v>22</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>97575</v>
+      </c>
+      <c r="G410">
+        <v>4022097575</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>113</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411">
+        <v>40</v>
+      </c>
+      <c r="D411">
+        <v>20</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>97374</v>
+      </c>
+      <c r="G411">
+        <v>4020097374</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>113</v>
+      </c>
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412">
+        <v>40</v>
+      </c>
+      <c r="D412">
+        <v>26</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>112100</v>
+      </c>
+      <c r="G412">
+        <v>4026112100</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>113</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>22</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>97375</v>
+      </c>
+      <c r="G413">
+        <v>22097375</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>114</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>28</v>
+      </c>
+      <c r="D414">
+        <v>33</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>111381</v>
+      </c>
+      <c r="G414">
+        <v>2833111381</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>114</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415">
+        <v>28</v>
+      </c>
+      <c r="D415">
+        <v>32</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>111860</v>
+      </c>
+      <c r="G415">
+        <v>2832111860</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>114</v>
+      </c>
+      <c r="B416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416">
+        <v>28</v>
+      </c>
+      <c r="D416">
+        <v>32</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>123219</v>
+      </c>
+      <c r="G416">
+        <v>2832123219</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>114</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>30</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>105292</v>
+      </c>
+      <c r="G417">
+        <v>30105292</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>115</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418">
+        <v>30</v>
+      </c>
+      <c r="D418">
+        <v>29</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>100347</v>
+      </c>
+      <c r="G418">
+        <v>3029100347</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>115</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419">
+        <v>30</v>
+      </c>
+      <c r="D419">
+        <v>29</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>95841</v>
+      </c>
+      <c r="G419">
+        <v>3029095841</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>115</v>
+      </c>
+      <c r="B420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420">
+        <v>30</v>
+      </c>
+      <c r="D420">
+        <v>30</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>118731</v>
+      </c>
+      <c r="G420">
+        <v>3030118731</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>115</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>29</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>100415</v>
+      </c>
+      <c r="G421">
+        <v>29100415</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>116</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422">
+        <v>23</v>
+      </c>
+      <c r="D422">
+        <v>24</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>93550</v>
+      </c>
+      <c r="G422">
+        <v>2324093550</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>116</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423">
+        <v>23</v>
+      </c>
+      <c r="D423">
+        <v>23</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>90062</v>
+      </c>
+      <c r="G423">
+        <v>2323090062</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>116</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424">
+        <v>23</v>
+      </c>
+      <c r="D424">
+        <v>28</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>115263</v>
+      </c>
+      <c r="G424">
+        <v>2328115263</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>24</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>94070</v>
+      </c>
+      <c r="G425">
+        <v>24094070</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>117</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>23</v>
+      </c>
+      <c r="D426">
+        <v>29</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>120103</v>
+      </c>
+      <c r="G426">
+        <v>2329120103</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>117</v>
+      </c>
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427">
+        <v>23</v>
+      </c>
+      <c r="D427">
+        <v>26</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>120433</v>
+      </c>
+      <c r="G427">
+        <v>2326120433</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>117</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428">
+        <v>23</v>
+      </c>
+      <c r="D428">
+        <v>32</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>140892</v>
+      </c>
+      <c r="G428">
+        <v>2332140892</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>117</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>27</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>118839</v>
+      </c>
+      <c r="G429">
+        <v>27118839</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430">
+        <v>27</v>
+      </c>
+      <c r="D430">
+        <v>30</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>102478</v>
+      </c>
+      <c r="G430">
+        <v>2730102478</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>118</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431">
+        <v>27</v>
+      </c>
+      <c r="D431">
+        <v>30</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>103440</v>
+      </c>
+      <c r="G431">
+        <v>2730103440</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>118</v>
+      </c>
+      <c r="B432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432">
+        <v>27</v>
+      </c>
+      <c r="D432">
+        <v>32</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>121186</v>
+      </c>
+      <c r="G432">
+        <v>2732121186</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>118</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>30</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>105180</v>
+      </c>
+      <c r="G433">
+        <v>30105180</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>119</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434">
+        <v>27</v>
+      </c>
+      <c r="D434">
+        <v>26</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>102859</v>
+      </c>
+      <c r="G434">
+        <v>2726102859</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>119</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435">
+        <v>27</v>
+      </c>
+      <c r="D435">
+        <v>25</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>106772</v>
+      </c>
+      <c r="G435">
+        <v>2725106772</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>119</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436">
+        <v>27</v>
+      </c>
+      <c r="D436">
+        <v>28</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>121067</v>
+      </c>
+      <c r="G436">
+        <v>2728121067</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>119</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>21</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>104353</v>
+      </c>
+      <c r="G437">
+        <v>21104353</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>120</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438">
+        <v>32</v>
+      </c>
+      <c r="D438">
+        <v>25</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>71826</v>
+      </c>
+      <c r="G438">
+        <v>3225071826</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>120</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>32</v>
+      </c>
+      <c r="D439">
+        <v>23</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>71489</v>
+      </c>
+      <c r="G439">
+        <v>3223071489</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>120</v>
+      </c>
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>32</v>
+      </c>
+      <c r="D440">
+        <v>25</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>91100</v>
+      </c>
+      <c r="G440">
+        <v>3225091100</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>120</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>26</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>73423</v>
+      </c>
+      <c r="G441">
+        <v>26073423</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>121</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442">
+        <v>30</v>
+      </c>
+      <c r="D442">
+        <v>25</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>90953</v>
+      </c>
+      <c r="G442">
+        <v>3025090953</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>121</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443">
+        <v>30</v>
+      </c>
+      <c r="D443">
+        <v>21</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>89782</v>
+      </c>
+      <c r="G443">
+        <v>3021089782</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>121</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444">
+        <v>30</v>
+      </c>
+      <c r="D444">
+        <v>28</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>107547</v>
+      </c>
+      <c r="G444">
+        <v>3028107547</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>121</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>25</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>91456</v>
+      </c>
+      <c r="G445">
+        <v>25091456</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>122</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446">
+        <v>35</v>
+      </c>
+      <c r="D446">
+        <v>26</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>118840</v>
+      </c>
+      <c r="G446">
+        <v>3526118840</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>122</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447">
+        <v>35</v>
+      </c>
+      <c r="D447">
+        <v>31</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>117259</v>
+      </c>
+      <c r="G447">
+        <v>3531117259</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>122</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448">
+        <v>35</v>
+      </c>
+      <c r="D448">
+        <v>27</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>131083</v>
+      </c>
+      <c r="G448">
+        <v>3527131083</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>122</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>25</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>118497</v>
+      </c>
+      <c r="G449">
+        <v>25118497</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>